--- a/uploads/newgsts.xlsx
+++ b/uploads/newgsts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA84744B-1226-40E4-8506-04B2E63FDBD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF9410B-8F27-4FD7-B671-81D18F82DE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>invoiceNo</t>
   </si>
@@ -40,20 +40,41 @@
     <t>grandTotal</t>
   </si>
   <si>
-    <t>13/02/2023</t>
-  </si>
-  <si>
-    <t>22AAAAA0040A1Z3</t>
-  </si>
-  <si>
-    <t>14/03/2024</t>
+    <t>sellerName</t>
+  </si>
+  <si>
+    <t>chhotu</t>
+  </si>
+  <si>
+    <t>kunj</t>
+  </si>
+  <si>
+    <t>14/03/2040</t>
+  </si>
+  <si>
+    <t>14/03/2041</t>
+  </si>
+  <si>
+    <t>22AAAAA0040A1Z20</t>
+  </si>
+  <si>
+    <t>14/03/2042</t>
+  </si>
+  <si>
+    <t>22AAAAA0040A1Z21</t>
+  </si>
+  <si>
+    <t>narendra</t>
+  </si>
+  <si>
+    <t>23AAAAA0040A1Z19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -73,6 +94,11 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -328,15 +354,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -355,45 +386,73 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="3">
-        <v>123</v>
+        <v>472</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3">
         <v>100</v>
       </c>
-      <c r="E2" s="3">
-        <v>18</v>
-      </c>
-      <c r="F2" s="3">
-        <v>118</v>
+      <c r="F2" s="3"/>
+      <c r="G2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="3">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3">
         <v>100</v>
       </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
       <c r="F3" s="3">
-        <v>128</v>
+        <v>112</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A4" s="3">
+        <v>474</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3">
+        <v>500</v>
+      </c>
+      <c r="F4" s="3">
+        <v>560</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/uploads/newgsts.xlsx
+++ b/uploads/newgsts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF9410B-8F27-4FD7-B671-81D18F82DE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0ED577-6907-48D3-9E99-D4A49EDFB086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>invoiceNo</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>narendra</t>
-  </si>
-  <si>
-    <t>23AAAAA0040A1Z19</t>
   </si>
 </sst>
 </file>
@@ -397,13 +394,13 @@
       <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="C2" s="3"/>
       <c r="D2" s="3">
         <v>100</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3">
+        <v>112</v>
+      </c>
       <c r="G2" t="s">
         <v>7</v>
       </c>

--- a/uploads/newgsts.xlsx
+++ b/uploads/newgsts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0ED577-6907-48D3-9E99-D4A49EDFB086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADDA593-E045-419E-A88A-078143147147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>invoiceNo</t>
   </si>
@@ -28,9 +28,6 @@
     <t>invoiceDate</t>
   </si>
   <si>
-    <t>sellerGSTIN</t>
-  </si>
-  <si>
     <t>totalAmount</t>
   </si>
   <si>
@@ -40,9 +37,6 @@
     <t>grandTotal</t>
   </si>
   <si>
-    <t>sellerName</t>
-  </si>
-  <si>
     <t>chhotu</t>
   </si>
   <si>
@@ -55,16 +49,25 @@
     <t>14/03/2041</t>
   </si>
   <si>
-    <t>22AAAAA0040A1Z20</t>
-  </si>
-  <si>
     <t>14/03/2042</t>
   </si>
   <si>
-    <t>22AAAAA0040A1Z21</t>
-  </si>
-  <si>
     <t>narendra</t>
+  </si>
+  <si>
+    <t>23AAAAA0040A1Z1</t>
+  </si>
+  <si>
+    <t>28AAAAA0040A1Z8</t>
+  </si>
+  <si>
+    <t>28AAAAA0040A1Z9</t>
+  </si>
+  <si>
+    <t>purchaserGSTIN</t>
+  </si>
+  <si>
+    <t>purchaserName</t>
   </si>
 </sst>
 </file>
@@ -354,7 +357,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -372,19 +375,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
@@ -392,17 +395,19 @@
         <v>472</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D2" s="3">
         <v>100</v>
       </c>
       <c r="F2" s="3">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
@@ -410,10 +415,10 @@
         <v>473</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3">
         <v>100</v>
@@ -425,7 +430,7 @@
         <v>112</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
@@ -433,10 +438,10 @@
         <v>474</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3">
         <v>500</v>
@@ -445,7 +450,7 @@
         <v>560</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
